--- a/moltemplate_opls/temp/lopls_dihedral_conversion.xlsx
+++ b/moltemplate_opls/temp/lopls_dihedral_conversion.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lmpAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\moltemplate_opls\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7756974-9062-44CA-A311-2AF7B5448BD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89361D25-0772-4866-95CE-B1AB6969DBB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" activeTab="3" xr2:uid="{19F806B3-36DA-47CF-A5FD-C7DC76A9BFA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{19F806B3-36DA-47CF-A5FD-C7DC76A9BFA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="converted" sheetId="2" r:id="rId2"/>
+    <sheet name="extracted from paper" sheetId="1" r:id="rId1"/>
+    <sheet name="converted to moltemplate" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
@@ -184,9 +184,6 @@
     <t>Hydrocarbons</t>
   </si>
   <si>
-    <t># unit: kJ/mol</t>
-  </si>
-  <si>
     <t>opls</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>@atom:*_b*_a*_d004*_i*</t>
+  </si>
+  <si>
+    <t># unit: kcal/mol</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,20 +719,20 @@
         <v>-1.4913400000000001</v>
       </c>
       <c r="H3">
-        <f>B3*0.24</f>
-        <v>0.12450887999999999</v>
+        <f>B3/4.184</f>
+        <v>0.12399306883365201</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:K3" si="0">C3*0.24</f>
-        <v>-5.5246080000000003E-2</v>
+        <f t="shared" ref="I3:K3" si="0">C3/4.184</f>
+        <v>-5.5017208413001908E-2</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0.21523368000000001</v>
+        <v>0.214342017208413</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.35792160000000001</v>
+        <v>-0.35643881453154874</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="1">B4*0.24</f>
-        <v>12.301223999999999</v>
+        <f t="shared" ref="H4:H6" si="1">B4/4.184</f>
+        <v>12.25026290630975</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I6" si="2">C4*0.24</f>
+        <f t="shared" ref="I4:I6" si="2">C4/4.184</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J6" si="3">D4*0.24</f>
-        <v>-12.301223999999999</v>
+        <f t="shared" ref="J4:J6" si="3">D4/4.184</f>
+        <v>-12.25026290630975</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" si="4">E4*0.24</f>
+        <f t="shared" ref="K4:K6" si="4">E4/4.184</f>
         <v>0</v>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-0.49177439999999994</v>
+        <v>-0.48973709369024854</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.24862079999999998</v>
+        <v>0.2475908221797323</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>-0.32322959999999995</v>
+        <v>-0.3218905353728489</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.20741303999999999</v>
+        <v>0.20655377629063096</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -819,19 +819,19 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.90867359999999997</v>
+        <v>0.9049091778202677</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>2.5630319999999998E-2</v>
+        <v>2.5524139579349903E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>-0.13492727999999998</v>
+        <v>-0.13436830783938813</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>-0.35697119999999999</v>
+        <v>-0.35549235181644356</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -862,20 +862,20 @@
         <v>-3.1889699999999999</v>
       </c>
       <c r="H8">
-        <f>B8*0.24</f>
-        <v>0.182892</v>
+        <f>B8/4.184</f>
+        <v>0.18213432122370937</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:K23" si="5">C8*0.24</f>
-        <v>0.56918159999999995</v>
+        <f t="shared" ref="I8:K12" si="5">C8/4.184</f>
+        <v>0.56682361376673029</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>1.4616000000000001E-2</v>
+        <v>1.4555449330783938E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>-0.76535279999999994</v>
+        <v>-0.76218212237093685</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -895,20 +895,20 @@
         <v>-2.2331699999999999</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:K25" si="6">B9*0.24</f>
-        <v>0.14504639999999999</v>
+        <f t="shared" ref="H9:H12" si="6">B9/4.184</f>
+        <v>0.14444550669216061</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>0.39475199999999999</v>
+        <v>0.3931166347992352</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>-3.3158399999999998E-2</v>
+        <v>-3.3021032504780112E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>-0.5359607999999999</v>
+        <v>-0.53374043977055441</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,19 +929,19 @@
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>-0.19071359999999998</v>
+        <v>-0.18992351816443595</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
-        <v>0.90142559999999994</v>
+        <v>0.89769120458891005</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>1.61088E-2</v>
+        <v>1.6042065009560229E-2</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>-0.74950320000000004</v>
+        <v>-0.74639818355640541</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -962,19 +962,19 @@
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>0.71412960000000003</v>
+        <v>0.71117112810707461</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.30174719999999999</v>
+        <v>0.30049713193116634</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>0.26741520000000002</v>
+        <v>0.26630736137667305</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>-1.2810408</v>
+        <v>-1.2757337476099426</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -995,19 +995,19 @@
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>0.52827839999999993</v>
+        <v>0.52608986615678766</v>
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
-        <v>-0.25800240000000002</v>
+        <v>-0.2569335564053537</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>0.85324079999999991</v>
+        <v>0.84970602294455067</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>-1.4575007999999998</v>
+        <v>-1.4514627151051624</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
-        <v>7.8232127999999994</v>
+        <f>B14/4.184</f>
+        <v>7.7908030592734221</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
-        <v>-1.5661031999999999</v>
+        <f t="shared" ref="I14:K14" si="7">C14/4.184</f>
+        <v>-1.5596152007648183</v>
       </c>
       <c r="J14">
-        <f t="shared" si="5"/>
-        <v>-5.7615815999999995</v>
+        <f t="shared" si="7"/>
+        <v>-5.7377127151051619</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
-        <v>5.4789984</v>
+        <f t="shared" ref="H15:H25" si="8">B15/4.184</f>
+        <v>5.4563001912045888</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I15:I25" si="9">C15/4.184</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="5"/>
-        <v>-5.7615888000000002</v>
+        <f t="shared" ref="J15:J25" si="10">D15/4.184</f>
+        <v>-5.7377198852772464</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K15:K25" si="11">E15/4.184</f>
         <v>0</v>
       </c>
     </row>
@@ -1098,20 +1098,20 @@
         <v>-0.93557000000000001</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
-        <v>4.2028799999999998E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.1854684512428297E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
-        <v>0.17213039999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.17141730401529637</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
-        <v>-2.1863999999999998E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.1773422562141489E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
-        <v>-0.22453680000000001</v>
+        <f t="shared" si="11"/>
+        <v>-0.22360659655831738</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,20 +1131,20 @@
         <v>-5.2207699999999999</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
-        <v>-1.6941528000000001</v>
+        <f t="shared" si="8"/>
+        <v>-1.6871343212237093</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
-        <v>1.8110472</v>
+        <f t="shared" si="9"/>
+        <v>1.8035444550669215</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
-        <v>1.2536376</v>
+        <f t="shared" si="10"/>
+        <v>1.2484440726577437</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
-        <v>-1.2529847999999999</v>
+        <f t="shared" si="11"/>
+        <v>-1.2477939770554494</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1164,20 +1164,20 @@
         <v>-3.59612</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
-        <v>0.21953999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.21863049713193114</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
-        <v>0.64161119999999994</v>
+        <f t="shared" si="9"/>
+        <v>0.63895315487571691</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
-        <v>-2.3719199999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.3620936902485658E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
-        <v>-0.86306879999999997</v>
+        <f t="shared" si="11"/>
+        <v>-0.85949330783938815</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,20 +1197,20 @@
         <v>4.1283000000000003</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
-        <v>-0.4524744</v>
+        <f t="shared" si="8"/>
+        <v>-0.45059990439770553</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
-        <v>-1.1874288</v>
+        <f t="shared" si="9"/>
+        <v>-1.1825095602294453</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
-        <v>0.62951279999999998</v>
+        <f t="shared" si="10"/>
+        <v>0.62690487571701714</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
-        <v>0.99079200000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.986687380497132</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,20 +1230,20 @@
         <v>5.6127900000000004</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
-        <v>0.73426559999999996</v>
+        <f t="shared" si="8"/>
+        <v>0.73122370936902481</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
-        <v>-0.87171839999999989</v>
+        <f t="shared" si="9"/>
+        <v>-0.86810707456978964</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
-        <v>-1.2419975999999999</v>
+        <f t="shared" si="10"/>
+        <v>-1.2368522944550668</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
-        <v>1.3470696</v>
+        <f t="shared" si="11"/>
+        <v>1.3414890057361377</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,20 +1263,20 @@
         <v>2.4702999999999999</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
-        <v>-0.17543040000000001</v>
+        <f t="shared" si="8"/>
+        <v>-0.17470363288718929</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
-        <v>-0.44359199999999999</v>
+        <f t="shared" si="9"/>
+        <v>-0.44175430210325045</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
-        <v>-1.7426399999999998E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.735420650095602E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
-        <v>0.59287199999999995</v>
+        <f t="shared" si="11"/>
+        <v>0.59041586998087947</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,20 +1296,20 @@
         <v>-5.2044899999999998</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
-        <v>-1.4436623999999998</v>
+        <f t="shared" si="8"/>
+        <v>-1.4376816443594644</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
-        <v>2.0952959999999998</v>
+        <f t="shared" si="9"/>
+        <v>2.0866156787762904</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
-        <v>0.62993520000000003</v>
+        <f t="shared" si="10"/>
+        <v>0.62732552581261947</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
-        <v>-1.2490775999999999</v>
+        <f t="shared" si="11"/>
+        <v>-1.2439029636711281</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1329,20 +1329,20 @@
         <v>-8.4274400000000007</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
-        <v>0.6411888</v>
+        <f t="shared" si="8"/>
+        <v>0.6385325047801147</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
-        <v>0.382884</v>
+        <f t="shared" si="9"/>
+        <v>0.38129780114722756</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
-        <v>1.0283447999999999</v>
+        <f t="shared" si="10"/>
+        <v>1.0240846080305928</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
-        <v>-2.0225856000000002</v>
+        <f t="shared" si="11"/>
+        <v>-2.014206500956023</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1362,20 +1362,20 @@
         <v>-11.085900000000001</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
-        <v>-1.1191392</v>
+        <f t="shared" si="8"/>
+        <v>-1.1145028680688336</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>-0.34817999999999999</v>
+        <f t="shared" si="9"/>
+        <v>-0.34673757170172081</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
-        <v>2.637912</v>
+        <f t="shared" si="10"/>
+        <v>2.6269837476099429</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
-        <v>-2.6606160000000001</v>
+        <f t="shared" si="11"/>
+        <v>-2.6495936902485662</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,20 +1395,20 @@
         <v>-10.360300000000001</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
-        <v>0.98488799999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.98080783938814531</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
-        <v>-0.66165359999999995</v>
+        <f t="shared" si="9"/>
+        <v>-0.65891252390057353</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
-        <v>2.3873063999999999</v>
+        <f t="shared" si="10"/>
+        <v>2.377416347992352</v>
       </c>
       <c r="K25">
-        <f t="shared" si="6"/>
-        <v>-2.486472</v>
+        <f t="shared" si="11"/>
+        <v>-2.4761711281070746</v>
       </c>
     </row>
   </sheetData>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3BA102-5A92-4303-86FD-B278E4B61179}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,16 +1457,16 @@
         <v>43</v>
       </c>
       <c r="D2" s="1">
-        <v>0.12450887999999999</v>
+        <v>0.12399306883365201</v>
       </c>
       <c r="E2" s="1">
-        <v>-5.5246080000000003E-2</v>
+        <v>-5.5017208413001908E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>0.21523368000000001</v>
+        <v>0.214342017208413</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.35792160000000001</v>
+        <v>-0.35643881453154874</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="1">
-        <v>12.301223999999999</v>
+        <v>12.25026290630975</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>-12.301223999999999</v>
+        <v>-12.25026290630975</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>43</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.49177439999999994</v>
+        <v>-0.48973709369024854</v>
       </c>
       <c r="E4" s="1">
-        <v>0.24862079999999998</v>
+        <v>0.2475908221797323</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.32322959999999995</v>
+        <v>-0.3218905353728489</v>
       </c>
       <c r="G4" s="1">
-        <v>0.20741303999999999</v>
+        <v>0.20655377629063096</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>43</v>
       </c>
       <c r="D5" s="1">
-        <v>0.90867359999999997</v>
+        <v>0.9049091778202677</v>
       </c>
       <c r="E5" s="1">
-        <v>2.5630319999999998E-2</v>
+        <v>2.5524139579349903E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.13492727999999998</v>
+        <v>-0.13436830783938813</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.35697119999999999</v>
+        <v>-0.35549235181644356</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>43</v>
       </c>
       <c r="D6" s="1">
-        <v>0.182892</v>
+        <v>0.18213432122370937</v>
       </c>
       <c r="E6" s="1">
-        <v>0.56918159999999995</v>
+        <v>0.56682361376673029</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4616000000000001E-2</v>
+        <v>1.4555449330783938E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>-0.76535279999999994</v>
+        <v>-0.76218212237093685</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="1">
-        <v>0.14504639999999999</v>
+        <v>0.14444550669216061</v>
       </c>
       <c r="E7" s="1">
-        <v>0.39475199999999999</v>
+        <v>0.3931166347992352</v>
       </c>
       <c r="F7" s="1">
-        <v>-3.3158399999999998E-2</v>
+        <v>-3.3021032504780112E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>-0.5359607999999999</v>
+        <v>-0.53374043977055441</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>43</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.19071359999999998</v>
+        <v>-0.18992351816443595</v>
       </c>
       <c r="E8" s="1">
-        <v>0.90142559999999994</v>
+        <v>0.89769120458891005</v>
       </c>
       <c r="F8" s="1">
-        <v>1.61088E-2</v>
+        <v>1.6042065009560229E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.74950320000000004</v>
+        <v>-0.74639818355640541</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="1">
-        <v>0.71412960000000003</v>
+        <v>0.71117112810707461</v>
       </c>
       <c r="E9" s="1">
-        <v>0.30174719999999999</v>
+        <v>0.30049713193116634</v>
       </c>
       <c r="F9" s="1">
-        <v>0.26741520000000002</v>
+        <v>0.26630736137667305</v>
       </c>
       <c r="G9" s="1">
-        <v>-1.2810408</v>
+        <v>-1.2757337476099426</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1665,16 +1665,16 @@
         <v>43</v>
       </c>
       <c r="D10" s="1">
-        <v>0.52827839999999993</v>
+        <v>0.52608986615678766</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.25800240000000002</v>
+        <v>-0.2569335564053537</v>
       </c>
       <c r="F10" s="1">
-        <v>0.85324079999999991</v>
+        <v>0.84970602294455067</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.4575007999999998</v>
+        <v>-1.4514627151051624</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>43</v>
       </c>
       <c r="D11" s="1">
-        <v>7.8232127999999994</v>
+        <v>7.7908030592734221</v>
       </c>
       <c r="E11" s="1">
-        <v>-1.5661031999999999</v>
+        <v>-1.5596152007648183</v>
       </c>
       <c r="F11" s="1">
-        <v>-5.7615815999999995</v>
+        <v>-5.7377127151051619</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1717,13 +1717,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="1">
-        <v>5.4789984</v>
+        <v>5.4563001912045888</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>-5.7615888000000002</v>
+        <v>-5.7377198852772464</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>43</v>
       </c>
       <c r="D13" s="1">
-        <v>4.2028799999999998E-2</v>
+        <v>4.1854684512428297E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.17213039999999999</v>
+        <v>0.17141730401529637</v>
       </c>
       <c r="F13" s="1">
-        <v>-2.1863999999999998E-3</v>
+        <v>-2.1773422562141489E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>-0.22453680000000001</v>
+        <v>-0.22360659655831738</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>43</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.6941528000000001</v>
+        <v>-1.6871343212237093</v>
       </c>
       <c r="E14" s="1">
-        <v>1.8110472</v>
+        <v>1.8035444550669215</v>
       </c>
       <c r="F14" s="1">
-        <v>1.2536376</v>
+        <v>1.2484440726577437</v>
       </c>
       <c r="G14" s="1">
-        <v>-1.2529847999999999</v>
+        <v>-1.2477939770554494</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>43</v>
       </c>
       <c r="D15" s="1">
-        <v>0.21953999999999999</v>
+        <v>0.21863049713193114</v>
       </c>
       <c r="E15" s="1">
-        <v>0.64161119999999994</v>
+        <v>0.63895315487571691</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.3719199999999999E-2</v>
+        <v>-2.3620936902485658E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>-0.86306879999999997</v>
+        <v>-0.85949330783938815</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>43</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.4524744</v>
+        <v>-0.45059990439770553</v>
       </c>
       <c r="E16" s="1">
-        <v>-1.1874288</v>
+        <v>-1.1825095602294453</v>
       </c>
       <c r="F16" s="1">
-        <v>0.62951279999999998</v>
+        <v>0.62690487571701714</v>
       </c>
       <c r="G16" s="1">
-        <v>0.99079200000000001</v>
+        <v>0.986687380497132</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>43</v>
       </c>
       <c r="D17" s="1">
-        <v>0.73426559999999996</v>
+        <v>0.73122370936902481</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.87171839999999989</v>
+        <v>-0.86810707456978964</v>
       </c>
       <c r="F17" s="1">
-        <v>-1.2419975999999999</v>
+        <v>-1.2368522944550668</v>
       </c>
       <c r="G17" s="1">
-        <v>1.3470696</v>
+        <v>1.3414890057361377</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1873,16 +1873,16 @@
         <v>43</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.17543040000000001</v>
+        <v>-0.17470363288718929</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.44359199999999999</v>
+        <v>-0.44175430210325045</v>
       </c>
       <c r="F18" s="1">
-        <v>-1.7426399999999998E-2</v>
+        <v>-1.735420650095602E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>0.59287199999999995</v>
+        <v>0.59041586998087947</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>43</v>
       </c>
       <c r="D19" s="1">
-        <v>-1.4436623999999998</v>
+        <v>-1.4376816443594644</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0952959999999998</v>
+        <v>2.0866156787762904</v>
       </c>
       <c r="F19" s="1">
-        <v>0.62993520000000003</v>
+        <v>0.62732552581261947</v>
       </c>
       <c r="G19" s="1">
-        <v>-1.2490775999999999</v>
+        <v>-1.2439029636711281</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>43</v>
       </c>
       <c r="D20" s="1">
-        <v>0.6411888</v>
+        <v>0.6385325047801147</v>
       </c>
       <c r="E20" s="1">
-        <v>0.382884</v>
+        <v>0.38129780114722756</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0283447999999999</v>
+        <v>1.0240846080305928</v>
       </c>
       <c r="G20" s="1">
-        <v>-2.0225856000000002</v>
+        <v>-2.014206500956023</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1951,16 +1951,16 @@
         <v>43</v>
       </c>
       <c r="D21" s="1">
-        <v>-1.1191392</v>
+        <v>-1.1145028680688336</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.34817999999999999</v>
+        <v>-0.34673757170172081</v>
       </c>
       <c r="F21" s="1">
-        <v>2.637912</v>
+        <v>2.6269837476099429</v>
       </c>
       <c r="G21" s="1">
-        <v>-2.6606160000000001</v>
+        <v>-2.6495936902485662</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>43</v>
       </c>
       <c r="D22" s="1">
-        <v>0.98488799999999999</v>
+        <v>0.98080783938814531</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.66165359999999995</v>
+        <v>-0.65891252390057353</v>
       </c>
       <c r="F22" s="1">
-        <v>2.3873063999999999</v>
+        <v>2.377416347992352</v>
       </c>
       <c r="G22" s="1">
-        <v>-2.486472</v>
+        <v>-2.4761711281070746</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,25 +2024,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -2105,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>1.12055999999999</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4">
         <v>-0.49440000000000001</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -2213,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2240,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2294,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <v>-0.2928</v>
@@ -2309,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2348,7 +2348,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <v>0.312</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -2390,10 +2390,10 @@
         <v>-8.5900799999999999E-2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2407,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974E470-7C01-4E3E-9651-294DC9F43BEC}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2425,16 +2425,16 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -2442,16 +2442,16 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2459,16 +2459,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2493,16 +2493,16 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2510,16 +2510,16 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2527,16 +2527,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2544,16 +2544,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2561,16 +2561,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2578,16 +2578,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2595,16 +2595,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2612,16 +2612,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
         <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -2629,16 +2629,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2646,16 +2646,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -2663,16 +2663,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -2680,16 +2680,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2697,16 +2697,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2714,16 +2714,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2731,16 +2731,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2748,16 +2748,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2765,16 +2765,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
